--- a/Modding resources/Equipment codes for OOBs.xlsx
+++ b/Modding resources/Equipment codes for OOBs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="476">
   <si>
     <t>Equipment Code</t>
   </si>
@@ -1303,9 +1303,6 @@
     <t>Required tech for 4.5 Gen and 5th Gen Strike Fighters</t>
   </si>
   <si>
-    <t>The rest is work in progress. Missing Light Jets, Helicopters, Bombers and transport planes, and all ships. Note that all land equipment is included.</t>
-  </si>
-  <si>
     <t>L_Strike_fighter_equipment_1</t>
   </si>
   <si>
@@ -1324,10 +1321,106 @@
     <t>L_Strike_fighter3</t>
   </si>
   <si>
+    <t>early_bomber</t>
+  </si>
+  <si>
+    <t>Required for strat bomb, tra plane, maritime patrol</t>
+  </si>
+  <si>
+    <t>strategic_bomber_equipment_1</t>
+  </si>
+  <si>
+    <t>strategic_bomber1</t>
+  </si>
+  <si>
+    <t>strategic_bomber_equipment_2</t>
+  </si>
+  <si>
+    <t>strategic_bomber2</t>
+  </si>
+  <si>
+    <t>strategic_bomber_equipment_3</t>
+  </si>
+  <si>
+    <t>strategic_bomber3</t>
+  </si>
+  <si>
+    <t>strategic_bomber_equipment_4</t>
+  </si>
+  <si>
+    <t>strategic_bomber4</t>
+  </si>
+  <si>
+    <t>B-2</t>
+  </si>
+  <si>
+    <t>transport_plane_equipment_1</t>
+  </si>
+  <si>
+    <t>transport_plane1</t>
+  </si>
+  <si>
+    <t>transport_plane_equipment_2</t>
+  </si>
+  <si>
+    <t>transport_plane2</t>
+  </si>
+  <si>
+    <t>transport_plane_equipment_3</t>
+  </si>
+  <si>
+    <t>transport_plane3</t>
+  </si>
+  <si>
+    <t>transport_plane_equipment_4</t>
+  </si>
+  <si>
+    <t>transport_plane4</t>
+  </si>
+  <si>
+    <t>nav_plane_equipment_1</t>
+  </si>
+  <si>
+    <t>naval_plane1</t>
+  </si>
+  <si>
+    <t>nav_plane_equipment_2</t>
+  </si>
+  <si>
+    <t>naval_plane2</t>
+  </si>
+  <si>
+    <t>nav_plane_equipment_3</t>
+  </si>
+  <si>
+    <t>naval_plane3</t>
+  </si>
+  <si>
+    <t>nav_plane_equipment_4</t>
+  </si>
+  <si>
+    <t>naval_plane4</t>
+  </si>
+  <si>
+    <t>CAS_equipment_1</t>
+  </si>
+  <si>
+    <t>cas1</t>
+  </si>
+  <si>
+    <t>CAS_equipment_2</t>
+  </si>
+  <si>
+    <t>cas2</t>
+  </si>
+  <si>
+    <t>CAS_equipment_3</t>
+  </si>
+  <si>
+    <t>cas3</t>
+  </si>
+  <si>
     <t>early_helicopter</t>
-  </si>
-  <si>
-    <t>Transport Helicopter</t>
   </si>
   <si>
     <t>attack_helicopter_equipment_1</t>
@@ -1478,21 +1571,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G192"/>
+  <dimension ref="A1:G208"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="510" topLeftCell="A109" activePane="bottomLeft" state="split"/>
+      <pane xSplit="0" ySplit="510" topLeftCell="A172" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D125" activeCellId="0" sqref="D125"/>
+      <selection pane="bottomLeft" activeCell="C200" activeCellId="0" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3804,132 +3898,325 @@
       <c r="D175" s="3"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="C176" s="5"/>
+      <c r="B176" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="C176" s="5" t="n">
+        <v>1975</v>
+      </c>
       <c r="D176" s="3"/>
     </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="C177" s="5" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D177" s="3"/>
+    </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C178" s="5"/>
+      <c r="A178" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="C178" s="5" t="n">
+        <v>2015</v>
+      </c>
       <c r="D178" s="3"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="B179" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="C179" s="5" t="n">
+      <c r="C179" s="5"/>
+      <c r="D179" s="3"/>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B180" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="C180" s="5" t="n">
+        <v>1965</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C181" s="5"/>
+      <c r="D181" s="3"/>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="C182" s="5" t="n">
+        <v>1965</v>
+      </c>
+      <c r="D182" s="3"/>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="C183" s="5" t="n">
         <v>1975</v>
       </c>
-      <c r="D179" s="3"/>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="B180" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="C180" s="5" t="n">
-        <v>1995</v>
-      </c>
-      <c r="D180" s="3"/>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
-        <v>432</v>
-      </c>
-      <c r="B181" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="C181" s="5" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D181" s="3"/>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C182" s="5"/>
-      <c r="D182" s="3"/>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C183" s="5"/>
       <c r="D183" s="3"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C184" s="5"/>
+      <c r="A184" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="C184" s="5" t="n">
+        <v>1985</v>
+      </c>
       <c r="D184" s="3"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>434</v>
+        <v>441</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>442</v>
       </c>
       <c r="C185" s="5" t="n">
-        <v>1965</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>435</v>
+        <v>2015</v>
+      </c>
+      <c r="D185" s="3"/>
+      <c r="E185" s="0" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="C186" s="5" t="n">
-        <v>1965</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>437</v>
-      </c>
+      <c r="C186" s="5"/>
+      <c r="D186" s="3"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>438</v>
+        <v>444</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>445</v>
       </c>
       <c r="C187" s="5" t="n">
-        <v>1985</v>
+        <v>1965</v>
       </c>
       <c r="D187" s="3"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>439</v>
+        <v>446</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>447</v>
       </c>
       <c r="C188" s="5" t="n">
-        <v>2005</v>
+        <v>1985</v>
       </c>
       <c r="D188" s="3"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>440</v>
+        <v>448</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>449</v>
       </c>
       <c r="C189" s="5" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D189" s="3"/>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="C190" s="5" t="n">
         <v>2015</v>
       </c>
-      <c r="D189" s="3"/>
+      <c r="D190" s="3"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="B191" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="C191" s="5" t="n">
-        <v>2005</v>
-      </c>
+      <c r="C191" s="5"/>
+      <c r="D191" s="3"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="C192" s="5" t="n">
+        <v>1965</v>
+      </c>
+      <c r="D192" s="3"/>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="C193" s="5" t="n">
+        <v>1975</v>
+      </c>
+      <c r="D193" s="3"/>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="C194" s="5" t="n">
+        <v>1985</v>
+      </c>
+      <c r="D194" s="3"/>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="C195" s="5" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D195" s="3"/>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C196" s="5"/>
+      <c r="D196" s="3"/>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="C197" s="5" t="n">
+        <v>1975</v>
+      </c>
+      <c r="D197" s="3"/>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="C198" s="5" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D198" s="3"/>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="C199" s="5" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D199" s="3"/>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C200" s="5"/>
+      <c r="D200" s="3"/>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="C201" s="5" t="n">
+        <v>1965</v>
+      </c>
+      <c r="D201" s="3"/>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="C202" s="5" t="n">
+        <v>1965</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="C203" s="5" t="n">
+        <v>1985</v>
+      </c>
+      <c r="D203" s="3"/>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="C204" s="5" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D204" s="3"/>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="C205" s="5" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D205" s="3"/>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="C207" s="5" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="C208" s="5" t="n">
         <v>2015</v>
       </c>
     </row>

--- a/Modding resources/Equipment codes for OOBs.xlsx
+++ b/Modding resources/Equipment codes for OOBs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="483">
   <si>
     <t>Equipment Code</t>
   </si>
@@ -1319,6 +1319,27 @@
   </si>
   <si>
     <t>L_Strike_fighter3</t>
+  </si>
+  <si>
+    <t>CV_L_Strike_fighter_equipment_1</t>
+  </si>
+  <si>
+    <t>CV_L_Strike_fighter_1</t>
+  </si>
+  <si>
+    <t>subtech, carrier version</t>
+  </si>
+  <si>
+    <t>CV_L_Strike_fighter_equipment_2</t>
+  </si>
+  <si>
+    <t>CV_L_Strike_fighter_2</t>
+  </si>
+  <si>
+    <t>CV_L_Strike_fighter_equipment_3</t>
+  </si>
+  <si>
+    <t>CV_L_Strike_fighter_3</t>
   </si>
   <si>
     <t>early_bomber</t>
@@ -1571,22 +1592,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G208"/>
+  <dimension ref="A1:G212"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="510" topLeftCell="A172" activePane="bottomLeft" state="split"/>
+      <pane xSplit="0" ySplit="510" topLeftCell="A166" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C200" activeCellId="0" sqref="C200"/>
+      <selection pane="bottomLeft" activeCell="B181" activeCellId="0" sqref="B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4744897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3938,73 +3960,76 @@
       <c r="D179" s="3"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>433</v>
+      </c>
       <c r="B180" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C180" s="5" t="n">
-        <v>1965</v>
+        <v>1975</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C181" s="5"/>
-      <c r="D181" s="3"/>
+      <c r="A181" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="C181" s="5" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="C182" s="5" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D182" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B182" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="C182" s="5" t="n">
-        <v>1965</v>
-      </c>
-      <c r="D182" s="3"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="B183" s="0" t="s">
-        <v>438</v>
-      </c>
-      <c r="C183" s="5" t="n">
-        <v>1975</v>
-      </c>
+      <c r="C183" s="5"/>
       <c r="D183" s="3"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
-        <v>439</v>
-      </c>
       <c r="B184" s="0" t="s">
         <v>440</v>
       </c>
       <c r="C184" s="5" t="n">
-        <v>1985</v>
-      </c>
-      <c r="D184" s="3"/>
+        <v>1965</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="B185" s="0" t="s">
+      <c r="C185" s="5"/>
+      <c r="D185" s="3"/>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="C185" s="5" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D185" s="3"/>
-      <c r="E185" s="0" t="s">
+      <c r="B186" s="0" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C186" s="5"/>
+      <c r="C186" s="5" t="n">
+        <v>1965</v>
+      </c>
       <c r="D186" s="3"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4015,7 +4040,7 @@
         <v>445</v>
       </c>
       <c r="C187" s="5" t="n">
-        <v>1965</v>
+        <v>1975</v>
       </c>
       <c r="D187" s="3"/>
     </row>
@@ -4039,84 +4064,87 @@
         <v>449</v>
       </c>
       <c r="C189" s="5" t="n">
-        <v>1995</v>
+        <v>2015</v>
       </c>
       <c r="D189" s="3"/>
+      <c r="E189" s="0" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="B190" s="0" t="s">
+      <c r="C190" s="5"/>
+      <c r="D190" s="3"/>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="C190" s="5" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D190" s="3"/>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C191" s="5"/>
+      <c r="B191" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="C191" s="5" t="n">
+        <v>1965</v>
+      </c>
       <c r="D191" s="3"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C192" s="5" t="n">
-        <v>1965</v>
+        <v>1985</v>
       </c>
       <c r="D192" s="3"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C193" s="5" t="n">
-        <v>1975</v>
+        <v>1995</v>
       </c>
       <c r="D193" s="3"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C194" s="5" t="n">
-        <v>1985</v>
+        <v>2015</v>
       </c>
       <c r="D194" s="3"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="B195" s="0" t="s">
+      <c r="C195" s="5"/>
+      <c r="D195" s="3"/>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
         <v>459</v>
       </c>
-      <c r="C195" s="5" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D195" s="3"/>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C196" s="5"/>
+      <c r="B196" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="C196" s="5" t="n">
+        <v>1965</v>
+      </c>
       <c r="D196" s="3"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C197" s="5" t="n">
         <v>1975</v>
@@ -4125,22 +4153,22 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C198" s="5" t="n">
-        <v>1995</v>
+        <v>1985</v>
       </c>
       <c r="D198" s="3"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C199" s="5" t="n">
         <v>2015</v>
@@ -4153,70 +4181,110 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>468</v>
       </c>
       <c r="C201" s="5" t="n">
-        <v>1965</v>
+        <v>1975</v>
       </c>
       <c r="D201" s="3"/>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>470</v>
       </c>
       <c r="C202" s="5" t="n">
-        <v>1965</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>468</v>
-      </c>
+        <v>1995</v>
+      </c>
+      <c r="D202" s="3"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>469</v>
+        <v>471</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>472</v>
       </c>
       <c r="C203" s="5" t="n">
-        <v>1985</v>
+        <v>2015</v>
       </c>
       <c r="D203" s="3"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="C204" s="5" t="n">
-        <v>2005</v>
-      </c>
+      <c r="C204" s="5"/>
       <c r="D204" s="3"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C205" s="5" t="n">
-        <v>2015</v>
+        <v>1965</v>
       </c>
       <c r="D205" s="3"/>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C206" s="5" t="n">
+        <v>1965</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B207" s="0" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C207" s="5" t="n">
-        <v>2005</v>
-      </c>
+        <v>1985</v>
+      </c>
+      <c r="D207" s="3"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>474</v>
-      </c>
-      <c r="B208" s="0" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C208" s="5" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D208" s="3"/>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="C209" s="5" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D209" s="3"/>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="C211" s="5" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="C212" s="5" t="n">
         <v>2015</v>
       </c>
     </row>

--- a/Modding resources/Equipment codes for OOBs.xlsx
+++ b/Modding resources/Equipment codes for OOBs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="497">
   <si>
     <t>Equipment Code</t>
   </si>
@@ -1444,19 +1444,61 @@
     <t>early_helicopter</t>
   </si>
   <si>
+    <t>required for all helicopter research</t>
+  </si>
+  <si>
     <t>attack_helicopter_equipment_1</t>
   </si>
   <si>
+    <t>attack_helicopter1</t>
+  </si>
+  <si>
     <t>Attack Helicopter</t>
   </si>
   <si>
     <t>attack_helicopter_equipment_2</t>
   </si>
   <si>
+    <t>attack_helicopter2</t>
+  </si>
+  <si>
     <t>attack_helicopter_equipment_3</t>
   </si>
   <si>
+    <t>attack_helicopter3</t>
+  </si>
+  <si>
     <t>attack_helicopter_equipment_4</t>
+  </si>
+  <si>
+    <t>attack_helicopter4</t>
+  </si>
+  <si>
+    <t>transport_helicopter_equipment_1</t>
+  </si>
+  <si>
+    <t>transport_helicopter1</t>
+  </si>
+  <si>
+    <t>Transport Helicopter</t>
+  </si>
+  <si>
+    <t>transport_helicopter_equipment_2</t>
+  </si>
+  <si>
+    <t>transport_helicopter2</t>
+  </si>
+  <si>
+    <t>transport_helicopter_equipment_3</t>
+  </si>
+  <si>
+    <t>transport_helicopter3</t>
+  </si>
+  <si>
+    <t>transport_helicopter_equipment_4</t>
+  </si>
+  <si>
+    <t>transport_helicopter4</t>
   </si>
   <si>
     <t>Air_UAV_equipment_1</t>
@@ -1592,23 +1634,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G212"/>
+  <dimension ref="A1:G217"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="510" topLeftCell="A166" activePane="bottomLeft" state="split"/>
+      <pane xSplit="0" ySplit="510" topLeftCell="A190" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B181" activeCellId="0" sqref="B181"/>
+      <selection pane="bottomLeft" activeCell="E215" activeCellId="0" sqref="E215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4220,28 +4261,36 @@
       <c r="D204" s="3"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
+      <c r="B205" s="0" t="s">
         <v>473</v>
       </c>
       <c r="C205" s="5" t="n">
         <v>1965</v>
       </c>
-      <c r="D205" s="3"/>
+      <c r="D205" s="3" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>476</v>
       </c>
       <c r="C206" s="5" t="n">
         <v>1965</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>479</v>
       </c>
       <c r="C207" s="5" t="n">
         <v>1985</v>
@@ -4250,7 +4299,10 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>477</v>
+        <v>480</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>481</v>
       </c>
       <c r="C208" s="5" t="n">
         <v>2005</v>
@@ -4259,7 +4311,10 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>478</v>
+        <v>482</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>483</v>
       </c>
       <c r="C209" s="5" t="n">
         <v>2015</v>
@@ -4268,23 +4323,70 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>480</v>
-      </c>
-      <c r="C211" s="5" t="n">
-        <v>2005</v>
+        <v>485</v>
+      </c>
+      <c r="C211" s="0" t="n">
+        <v>1965</v>
+      </c>
+      <c r="D211" s="0" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>482</v>
-      </c>
-      <c r="C212" s="5" t="n">
+        <v>488</v>
+      </c>
+      <c r="C212" s="0" t="n">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="C213" s="0" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="C214" s="0" t="n">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="C216" s="5" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="C217" s="5" t="n">
         <v>2015</v>
       </c>
     </row>

--- a/Modding resources/Equipment codes for OOBs.xlsx
+++ b/Modding resources/Equipment codes for OOBs.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Modern_Day_4_HOI\Modding resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="985"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="Unspecified"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="502">
   <si>
     <t>Equipment Code</t>
   </si>
@@ -1511,16 +1515,28 @@
   </si>
   <si>
     <t>Air_UAV2</t>
+  </si>
+  <si>
+    <t>IFV_2</t>
+  </si>
+  <si>
+    <t>IFV_3</t>
+  </si>
+  <si>
+    <t>IFV_4</t>
+  </si>
+  <si>
+    <t>IFV_5</t>
+  </si>
+  <si>
+    <t>IFV_6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1528,22 +1544,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1559,7 +1560,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1567,92 +1568,353 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-teema">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G217"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="510" topLeftCell="A190" activePane="bottomLeft" state="split"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E215" activeCellId="0" sqref="E215"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="510" topLeftCell="A19" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.6632653061225"/>
+    <col min="1" max="1" width="29"/>
+    <col min="2" max="2" width="26.42578125"/>
+    <col min="4" max="4" width="12.42578125"/>
+    <col min="5" max="5" width="11.5703125"/>
+    <col min="6" max="6" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1675,194 +1937,194 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C6" s="5"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="5">
         <v>1965</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="5">
         <v>1975</v>
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="5">
         <v>1985</v>
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="5">
         <v>1995</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="5">
         <v>2005</v>
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="5">
         <v>2015</v>
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C13" s="5"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="5">
         <v>1965</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="5">
         <v>1975</v>
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="5">
         <v>1985</v>
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="5">
         <v>1995</v>
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="5">
         <v>2005</v>
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="5">
         <v>2015</v>
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C20" s="5"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="5"/>
@@ -1870,60 +2132,60 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C22" s="5"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" s="5">
         <v>1965</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="5" t="n">
+      <c r="C24" s="5">
         <v>1975</v>
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C25" s="5">
         <v>1985</v>
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C26" s="5"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="5" t="n">
+      <c r="C27" s="5">
         <v>1975</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -1933,14 +2195,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="5" t="n">
+      <c r="C28" s="5">
         <v>1985</v>
       </c>
       <c r="D28" s="3"/>
@@ -1948,14 +2210,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="5" t="n">
+      <c r="C29" s="5">
         <v>1995</v>
       </c>
       <c r="D29" s="3"/>
@@ -1963,14 +2225,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="5" t="n">
+      <c r="C30" s="5">
         <v>2005</v>
       </c>
       <c r="D30" s="3"/>
@@ -1978,14 +2240,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="5" t="n">
+      <c r="C31" s="5">
         <v>2015</v>
       </c>
       <c r="D31" s="3"/>
@@ -1993,587 +2255,587 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C32" s="5"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="5" t="n">
+      <c r="C33" s="5">
         <v>1985</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="5" t="n">
+      <c r="C34" s="5">
         <v>1995</v>
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="5" t="n">
+      <c r="C35" s="5">
         <v>2005</v>
       </c>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="5" t="n">
+      <c r="C36" s="5">
         <v>2015</v>
       </c>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C37" s="5"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="5" t="n">
+      <c r="C38" s="5">
         <v>1965</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="5" t="n">
+      <c r="C39" s="5">
         <v>1985</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" t="s">
         <v>76</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" t="s">
         <v>77</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="5" t="n">
+      <c r="C40" s="5">
         <v>2005</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" t="s">
         <v>81</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C41" s="5"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="5" t="n">
+      <c r="C42" s="5">
         <v>1965</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" t="s">
         <v>86</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="5" t="n">
+      <c r="C43" s="5">
         <v>1985</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" t="s">
         <v>91</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" t="s">
         <v>92</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="G43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="5" t="n">
+      <c r="C44" s="5">
         <v>2005</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" t="s">
         <v>90</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" t="s">
         <v>96</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C45" s="5"/>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="5" t="n">
+      <c r="C46" s="5">
         <v>1975</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="5" t="n">
+      <c r="C47" s="5">
         <v>1995</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C48" s="5"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="5" t="n">
+      <c r="C49" s="5">
         <v>1965</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" t="s">
         <v>104</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" t="s">
         <v>105</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F49" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="5" t="n">
+      <c r="C50" s="5">
         <v>1985</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" t="s">
         <v>109</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="F50" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" t="s">
         <v>112</v>
       </c>
-      <c r="C51" s="5" t="n">
+      <c r="C51" s="5">
         <v>2005</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" t="s">
         <v>113</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="F51" t="s">
         <v>114</v>
       </c>
-      <c r="G51" s="0" t="s">
+      <c r="G51" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C52" s="5"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>116</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" t="s">
         <v>116</v>
       </c>
-      <c r="C53" s="5" t="n">
+      <c r="C53" s="5">
         <v>1965</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" t="s">
         <v>117</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" t="s">
         <v>118</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="F53" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="5" t="n">
+      <c r="C54" s="5">
         <v>1985</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="E54" t="s">
         <v>121</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="F54" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>123</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="5" t="n">
+      <c r="C55" s="5">
         <v>2005</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="F55" t="s">
         <v>125</v>
       </c>
-      <c r="G55" s="0" t="s">
+      <c r="G55" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C56" s="5"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>127</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" t="s">
         <v>127</v>
       </c>
-      <c r="C57" s="5" t="n">
+      <c r="C57" s="5">
         <v>1965</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" t="s">
         <v>128</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>130</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" t="s">
         <v>130</v>
       </c>
-      <c r="C58" s="5" t="n">
+      <c r="C58" s="5">
         <v>1985</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" t="s">
         <v>90</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="E58" t="s">
         <v>131</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="F58" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>133</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" t="s">
         <v>133</v>
       </c>
-      <c r="C59" s="5" t="n">
+      <c r="C59" s="5">
         <v>2005</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" t="s">
         <v>90</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="E59" t="s">
         <v>134</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="F59" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C60" s="5"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>39</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" t="s">
         <v>136</v>
       </c>
-      <c r="C61" s="5" t="n">
+      <c r="C61" s="5">
         <v>1975</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>39</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" t="s">
         <v>138</v>
       </c>
-      <c r="C62" s="5" t="n">
+      <c r="C62" s="5">
         <v>1995</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C63" s="5"/>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>140</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" t="s">
         <v>141</v>
       </c>
-      <c r="C64" s="5" t="n">
+      <c r="C64" s="5">
         <v>1965</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" t="s">
         <v>142</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="E64" t="s">
         <v>143</v>
       </c>
-      <c r="F64" s="0" t="s">
+      <c r="F64" t="s">
         <v>144</v>
       </c>
-      <c r="G64" s="0" t="s">
+      <c r="G64" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>146</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" t="s">
         <v>147</v>
       </c>
-      <c r="C65" s="5" t="n">
+      <c r="C65" s="5">
         <v>1985</v>
       </c>
-      <c r="E65" s="0" t="s">
+      <c r="E65" t="s">
         <v>148</v>
       </c>
-      <c r="F65" s="0" t="s">
+      <c r="F65" t="s">
         <v>149</v>
       </c>
-      <c r="G65" s="0" t="s">
+      <c r="G65" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>151</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" t="s">
         <v>152</v>
       </c>
-      <c r="C66" s="5" t="n">
+      <c r="C66" s="5">
         <v>2005</v>
       </c>
-      <c r="E66" s="0" t="s">
+      <c r="E66" t="s">
         <v>153</v>
       </c>
-      <c r="F66" s="0" t="s">
+      <c r="F66" t="s">
         <v>154</v>
       </c>
-      <c r="G66" s="0" t="s">
+      <c r="G66" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C67" s="5"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>156</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" t="s">
         <v>157</v>
       </c>
-      <c r="C68" s="5" t="n">
+      <c r="C68" s="5">
         <v>1965</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>159</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" t="s">
         <v>160</v>
       </c>
-      <c r="C69" s="5" t="n">
+      <c r="C69" s="5">
         <v>1985</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" t="s">
         <v>90</v>
       </c>
-      <c r="E69" s="0" t="s">
+      <c r="E69" t="s">
         <v>161</v>
       </c>
-      <c r="F69" s="0" t="s">
+      <c r="F69" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>163</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" t="s">
         <v>164</v>
       </c>
-      <c r="C70" s="5" t="n">
+      <c r="C70" s="5">
         <v>2005</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" t="s">
         <v>90</v>
       </c>
-      <c r="E70" s="0" t="s">
+      <c r="E70" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C71" s="5"/>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>39</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" t="s">
         <v>166</v>
       </c>
-      <c r="C72" s="5" t="n">
+      <c r="C72" s="5">
         <v>1975</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>39</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" t="s">
         <v>168</v>
       </c>
-      <c r="C73" s="5" t="n">
+      <c r="C73" s="5">
         <v>1995</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C74" s="5"/>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>39</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" t="s">
         <v>170</v>
       </c>
       <c r="C75" s="5"/>
@@ -2581,983 +2843,983 @@
         <v>171</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C76" s="5"/>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>172</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" t="s">
         <v>173</v>
       </c>
-      <c r="C77" s="5" t="n">
+      <c r="C77" s="5">
         <v>1965</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>175</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" t="s">
         <v>176</v>
       </c>
-      <c r="C78" s="5" t="n">
+      <c r="C78" s="5">
         <v>1975</v>
       </c>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>177</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" t="s">
         <v>178</v>
       </c>
-      <c r="C79" s="5" t="n">
+      <c r="C79" s="5">
         <v>1985</v>
       </c>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>179</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" t="s">
         <v>180</v>
       </c>
-      <c r="C80" s="5" t="n">
+      <c r="C80" s="5">
         <v>1995</v>
       </c>
       <c r="D80" s="3"/>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>181</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" t="s">
         <v>182</v>
       </c>
-      <c r="C81" s="5" t="n">
+      <c r="C81" s="5">
         <v>2005</v>
       </c>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>183</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" t="s">
         <v>184</v>
       </c>
-      <c r="C82" s="5" t="n">
+      <c r="C82" s="5">
         <v>2015</v>
       </c>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C83" s="5"/>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>185</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" t="s">
         <v>186</v>
       </c>
-      <c r="C84" s="5" t="n">
+      <c r="C84" s="5">
         <v>1965</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>188</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" t="s">
         <v>186</v>
       </c>
-      <c r="C85" s="5" t="n">
+      <c r="C85" s="5">
         <v>1975</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>189</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" t="s">
         <v>186</v>
       </c>
-      <c r="C86" s="5" t="n">
+      <c r="C86" s="5">
         <v>1985</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" t="s">
         <v>90</v>
       </c>
-      <c r="E86" s="0" t="s">
+      <c r="E86" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>191</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" t="s">
         <v>186</v>
       </c>
-      <c r="C87" s="5" t="n">
+      <c r="C87" s="5">
         <v>1995</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>192</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" t="s">
         <v>186</v>
       </c>
-      <c r="C88" s="5" t="n">
+      <c r="C88" s="5">
         <v>2005</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" t="s">
         <v>90</v>
       </c>
-      <c r="E88" s="0" t="s">
+      <c r="E88" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>194</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" t="s">
         <v>186</v>
       </c>
-      <c r="C89" s="5" t="n">
+      <c r="C89" s="5">
         <v>2015</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D89" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D90" s="3"/>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>195</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" t="s">
         <v>196</v>
       </c>
-      <c r="C91" s="5" t="n">
+      <c r="C91" s="5">
         <v>1965</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>198</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" t="s">
         <v>199</v>
       </c>
-      <c r="C92" s="5" t="n">
+      <c r="C92" s="5">
         <v>1975</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>200</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" t="s">
         <v>201</v>
       </c>
-      <c r="C93" s="5" t="n">
+      <c r="C93" s="5">
         <v>1985</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>202</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" t="s">
         <v>203</v>
       </c>
-      <c r="C94" s="5" t="n">
+      <c r="C94" s="5">
         <v>1995</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>204</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" t="s">
         <v>205</v>
       </c>
-      <c r="C95" s="5" t="n">
+      <c r="C95" s="5">
         <v>2005</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>206</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" t="s">
         <v>207</v>
       </c>
-      <c r="C96" s="5" t="n">
+      <c r="C96" s="5">
         <v>2015</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C97" s="5"/>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>208</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" t="s">
         <v>209</v>
       </c>
-      <c r="C98" s="5" t="n">
+      <c r="C98" s="5">
         <v>1965</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E98" s="0" t="s">
+      <c r="E98" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>212</v>
       </c>
-      <c r="B99" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="C99" s="5" t="n">
+      <c r="B99" t="s">
+        <v>497</v>
+      </c>
+      <c r="C99" s="5">
         <v>1975</v>
       </c>
       <c r="D99" s="3"/>
-      <c r="E99" s="0" t="s">
+      <c r="E99" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>214</v>
       </c>
-      <c r="B100" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="C100" s="5" t="n">
+      <c r="B100" t="s">
+        <v>498</v>
+      </c>
+      <c r="C100" s="5">
         <v>1985</v>
       </c>
       <c r="D100" s="3"/>
-      <c r="E100" s="0" t="s">
+      <c r="E100" t="s">
         <v>215</v>
       </c>
-      <c r="F100" s="0" t="s">
+      <c r="F100" t="s">
         <v>216</v>
       </c>
-      <c r="G100" s="0" t="s">
+      <c r="G100" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>218</v>
       </c>
-      <c r="B101" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="C101" s="5" t="n">
+      <c r="B101" t="s">
+        <v>499</v>
+      </c>
+      <c r="C101" s="5">
         <v>1995</v>
       </c>
       <c r="D101" s="3"/>
-      <c r="E101" s="0" t="s">
+      <c r="E101" t="s">
         <v>219</v>
       </c>
-      <c r="F101" s="0" t="s">
+      <c r="F101" t="s">
         <v>220</v>
       </c>
-      <c r="G101" s="0" t="s">
+      <c r="G101" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>222</v>
       </c>
-      <c r="B102" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="C102" s="5" t="n">
+      <c r="B102" t="s">
+        <v>500</v>
+      </c>
+      <c r="C102" s="5">
         <v>2005</v>
       </c>
       <c r="D102" s="3"/>
-      <c r="E102" s="0" t="s">
+      <c r="E102" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>224</v>
       </c>
-      <c r="B103" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="C103" s="5" t="n">
+      <c r="B103" t="s">
+        <v>501</v>
+      </c>
+      <c r="C103" s="5">
         <v>2015</v>
       </c>
       <c r="D103" s="3"/>
-      <c r="E103" s="0" t="s">
+      <c r="E103" t="s">
         <v>225</v>
       </c>
-      <c r="F103" s="0" t="s">
+      <c r="F103" t="s">
         <v>226</v>
       </c>
-      <c r="G103" s="0" t="s">
+      <c r="G103" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C104" s="5"/>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>228</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" t="s">
         <v>229</v>
       </c>
-      <c r="C105" s="5" t="n">
+      <c r="C105" s="5">
         <v>1965</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="E105" s="0" t="s">
+      <c r="E105" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>232</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" t="s">
         <v>233</v>
       </c>
-      <c r="C106" s="5" t="n">
+      <c r="C106" s="5">
         <v>1975</v>
       </c>
-      <c r="D106" s="0" t="s">
+      <c r="D106" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>234</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" t="s">
         <v>235</v>
       </c>
-      <c r="C107" s="5" t="n">
+      <c r="C107" s="5">
         <v>1985</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="D107" t="s">
         <v>90</v>
       </c>
-      <c r="E107" s="0" t="s">
+      <c r="E107" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>237</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" t="s">
         <v>238</v>
       </c>
-      <c r="C108" s="5" t="n">
+      <c r="C108" s="5">
         <v>1995</v>
       </c>
-      <c r="D108" s="0" t="s">
+      <c r="D108" t="s">
         <v>90</v>
       </c>
-      <c r="E108" s="0" t="s">
+      <c r="E108" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>240</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" t="s">
         <v>241</v>
       </c>
-      <c r="C109" s="5" t="n">
+      <c r="C109" s="5">
         <v>2005</v>
       </c>
-      <c r="D109" s="0" t="s">
+      <c r="D109" t="s">
         <v>90</v>
       </c>
-      <c r="E109" s="0" t="s">
+      <c r="E109" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>243</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" t="s">
         <v>244</v>
       </c>
-      <c r="C110" s="5" t="n">
+      <c r="C110" s="5">
         <v>2015</v>
       </c>
-      <c r="D110" s="0" t="s">
+      <c r="D110" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C111" s="5"/>
       <c r="D111" s="3"/>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>245</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" t="s">
         <v>246</v>
       </c>
-      <c r="C112" s="5" t="n">
+      <c r="C112" s="5">
         <v>1965</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>248</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" t="s">
         <v>249</v>
       </c>
-      <c r="C113" s="5" t="n">
+      <c r="C113" s="5">
         <v>1975</v>
       </c>
-      <c r="D113" s="0" t="s">
+      <c r="D113" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>250</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" t="s">
         <v>251</v>
       </c>
-      <c r="C114" s="5" t="n">
+      <c r="C114" s="5">
         <v>1985</v>
       </c>
-      <c r="D114" s="0" t="s">
+      <c r="D114" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>252</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" t="s">
         <v>253</v>
       </c>
-      <c r="C115" s="5" t="n">
+      <c r="C115" s="5">
         <v>1995</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D115" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>254</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" t="s">
         <v>255</v>
       </c>
-      <c r="C116" s="5" t="n">
+      <c r="C116" s="5">
         <v>2005</v>
       </c>
-      <c r="D116" s="0" t="s">
+      <c r="D116" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>256</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" t="s">
         <v>257</v>
       </c>
-      <c r="C117" s="5" t="n">
+      <c r="C117" s="5">
         <v>2015</v>
       </c>
-      <c r="D117" s="0" t="s">
+      <c r="D117" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D118" s="3"/>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>258</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" t="s">
         <v>258</v>
       </c>
-      <c r="C119" s="5" t="n">
+      <c r="C119" s="5">
         <v>1965</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E119" s="0" t="s">
+      <c r="E119" t="s">
         <v>260</v>
       </c>
-      <c r="F119" s="0" t="s">
+      <c r="F119" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>262</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" t="s">
         <v>262</v>
       </c>
-      <c r="C120" s="5" t="n">
+      <c r="C120" s="5">
         <v>1975</v>
       </c>
       <c r="D120" s="3"/>
-      <c r="E120" s="0" t="s">
+      <c r="E120" t="s">
         <v>263</v>
       </c>
-      <c r="F120" s="0" t="s">
+      <c r="F120" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>265</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" t="s">
         <v>265</v>
       </c>
-      <c r="C121" s="5" t="n">
+      <c r="C121" s="5">
         <v>1985</v>
       </c>
       <c r="D121" s="3"/>
-      <c r="E121" s="0" t="s">
+      <c r="E121" t="s">
         <v>266</v>
       </c>
-      <c r="F121" s="0" t="s">
+      <c r="F121" t="s">
         <v>267</v>
       </c>
-      <c r="G121" s="0" t="s">
+      <c r="G121" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>269</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B122" t="s">
         <v>269</v>
       </c>
-      <c r="C122" s="5" t="n">
+      <c r="C122" s="5">
         <v>1995</v>
       </c>
       <c r="D122" s="3"/>
-      <c r="E122" s="0" t="s">
+      <c r="E122" t="s">
         <v>270</v>
       </c>
-      <c r="F122" s="0" t="s">
+      <c r="F122" t="s">
         <v>271</v>
       </c>
-      <c r="G122" s="0" t="s">
+      <c r="G122" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>273</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" t="s">
         <v>273</v>
       </c>
-      <c r="C123" s="5" t="n">
+      <c r="C123" s="5">
         <v>2005</v>
       </c>
       <c r="D123" s="3"/>
-      <c r="E123" s="0" t="s">
+      <c r="E123" t="s">
         <v>274</v>
       </c>
-      <c r="F123" s="0" t="s">
+      <c r="F123" t="s">
         <v>275</v>
       </c>
-      <c r="G123" s="0" t="s">
+      <c r="G123" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>277</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" t="s">
         <v>277</v>
       </c>
-      <c r="C124" s="5" t="n">
+      <c r="C124" s="5">
         <v>2015</v>
       </c>
       <c r="D124" s="3"/>
-      <c r="E124" s="0" t="s">
+      <c r="E124" t="s">
         <v>278</v>
       </c>
-      <c r="F124" s="0" t="s">
+      <c r="F124" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C125" s="5"/>
       <c r="D125" s="3"/>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>280</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="B126" t="s">
         <v>281</v>
       </c>
-      <c r="C126" s="5" t="n">
+      <c r="C126" s="5">
         <v>1965</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="F126" s="0" t="s">
+      <c r="F126" t="s">
         <v>283</v>
       </c>
-      <c r="G126" s="0" t="s">
+      <c r="G126" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>285</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="B127" t="s">
         <v>286</v>
       </c>
-      <c r="C127" s="5" t="n">
+      <c r="C127" s="5">
         <v>1985</v>
       </c>
       <c r="D127" s="3"/>
-      <c r="E127" s="0" t="s">
+      <c r="E127" t="s">
         <v>287</v>
       </c>
-      <c r="F127" s="0" t="s">
+      <c r="F127" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>289</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="B128" t="s">
         <v>290</v>
       </c>
-      <c r="C128" s="5" t="n">
+      <c r="C128" s="5">
         <v>2005</v>
       </c>
       <c r="D128" s="3"/>
-      <c r="E128" s="0" t="s">
+      <c r="E128" t="s">
         <v>291</v>
       </c>
-      <c r="F128" s="0" t="s">
+      <c r="F128" t="s">
         <v>292</v>
       </c>
-      <c r="G128" s="0" t="s">
+      <c r="G128" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>294</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B129" t="s">
         <v>295</v>
       </c>
-      <c r="C129" s="5" t="n">
+      <c r="C129" s="5">
         <v>2015</v>
       </c>
       <c r="D129" s="3"/>
-      <c r="E129" s="0" t="s">
+      <c r="E129" t="s">
         <v>296</v>
       </c>
-      <c r="F129" s="0" t="s">
+      <c r="F129" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C130" s="5"/>
       <c r="D130" s="3"/>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>298</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="B131" t="s">
         <v>299</v>
       </c>
-      <c r="C131" s="5" t="n">
+      <c r="C131" s="5">
         <v>1965</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E131" s="0" t="s">
+      <c r="E131" t="s">
         <v>301</v>
       </c>
-      <c r="F131" s="0" t="s">
+      <c r="F131" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>303</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="B132" t="s">
         <v>304</v>
       </c>
-      <c r="C132" s="5" t="n">
+      <c r="C132" s="5">
         <v>1975</v>
       </c>
       <c r="D132" s="3"/>
-      <c r="E132" s="0" t="s">
+      <c r="E132" t="s">
         <v>305</v>
       </c>
-      <c r="F132" s="0" t="s">
+      <c r="F132" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>307</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="B133" t="s">
         <v>308</v>
       </c>
-      <c r="C133" s="5" t="n">
+      <c r="C133" s="5">
         <v>1985</v>
       </c>
       <c r="D133" s="3"/>
-      <c r="E133" s="0" t="s">
+      <c r="E133" t="s">
         <v>309</v>
       </c>
-      <c r="F133" s="0" t="s">
+      <c r="F133" t="s">
         <v>310</v>
       </c>
-      <c r="G133" s="0" t="s">
+      <c r="G133" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>312</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="B134" t="s">
         <v>313</v>
       </c>
-      <c r="C134" s="5" t="n">
+      <c r="C134" s="5">
         <v>1995</v>
       </c>
       <c r="D134" s="3"/>
-      <c r="E134" s="0" t="s">
+      <c r="E134" t="s">
         <v>314</v>
       </c>
-      <c r="F134" s="0" t="s">
+      <c r="F134" t="s">
         <v>315</v>
       </c>
-      <c r="G134" s="0" t="s">
+      <c r="G134" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>317</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="B135" t="s">
         <v>318</v>
       </c>
-      <c r="C135" s="5" t="n">
+      <c r="C135" s="5">
         <v>2015</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="E135" s="0" t="s">
+      <c r="E135" t="s">
         <v>320</v>
       </c>
-      <c r="F135" s="0" t="s">
+      <c r="F135" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C136" s="5"/>
       <c r="D136" s="3"/>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>322</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="B137" t="s">
         <v>323</v>
       </c>
-      <c r="C137" s="5" t="n">
+      <c r="C137" s="5">
         <v>1965</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E137" s="0" t="s">
+      <c r="E137" t="s">
         <v>325</v>
       </c>
-      <c r="F137" s="0" t="s">
+      <c r="F137" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>327</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="B138" t="s">
         <v>328</v>
       </c>
-      <c r="C138" s="5" t="n">
+      <c r="C138" s="5">
         <v>1975</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E138" s="0" t="s">
+      <c r="E138" t="s">
         <v>329</v>
       </c>
-      <c r="F138" s="0" t="s">
+      <c r="F138" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>331</v>
       </c>
-      <c r="B139" s="0" t="s">
+      <c r="B139" t="s">
         <v>332</v>
       </c>
-      <c r="C139" s="5" t="n">
+      <c r="C139" s="5">
         <v>1985</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>333</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="B140" t="s">
         <v>334</v>
       </c>
-      <c r="C140" s="5" t="n">
+      <c r="C140" s="5">
         <v>1995</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E140" s="0" t="s">
+      <c r="E140" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>336</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="B141" t="s">
         <v>337</v>
       </c>
-      <c r="C141" s="5" t="n">
+      <c r="C141" s="5">
         <v>2015</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E141" s="0" t="s">
+      <c r="E141" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C142" s="5"/>
       <c r="D142" s="3"/>
     </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C143" s="5"/>
       <c r="D143" s="3"/>
     </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>339</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="3"/>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="0" t="s">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
         <v>340</v>
       </c>
       <c r="C145" s="5"/>
@@ -3565,26 +3827,26 @@
         <v>341</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C146" s="5"/>
       <c r="D146" s="3"/>
     </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>342</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="3"/>
     </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C148" s="5"/>
       <c r="D148" s="3"/>
     </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>343</v>
       </c>
-      <c r="B149" s="0" t="s">
+      <c r="B149" t="s">
         <v>344</v>
       </c>
       <c r="C149" s="5" t="s">
@@ -3593,79 +3855,79 @@
       <c r="D149" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="E149" s="0" t="s">
+      <c r="E149" t="s">
         <v>347</v>
       </c>
-      <c r="F149" s="0" t="s">
+      <c r="F149" t="s">
         <v>348</v>
       </c>
-      <c r="G149" s="0" t="s">
+      <c r="G149" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>350</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="B150" t="s">
         <v>351</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>352</v>
       </c>
       <c r="D150" s="3"/>
-      <c r="E150" s="0" t="s">
+      <c r="E150" t="s">
         <v>353</v>
       </c>
-      <c r="F150" s="0" t="s">
+      <c r="F150" t="s">
         <v>354</v>
       </c>
-      <c r="G150" s="0" t="s">
+      <c r="G150" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>356</v>
       </c>
-      <c r="B151" s="0" t="s">
+      <c r="B151" t="s">
         <v>357</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>358</v>
       </c>
       <c r="D151" s="3"/>
-      <c r="E151" s="0" t="s">
+      <c r="E151" t="s">
         <v>359</v>
       </c>
-      <c r="F151" s="0" t="s">
+      <c r="F151" t="s">
         <v>360</v>
       </c>
-      <c r="G151" s="0" t="s">
+      <c r="G151" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
         <v>362</v>
       </c>
-      <c r="B152" s="0" t="s">
+      <c r="B152" t="s">
         <v>363</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>364</v>
       </c>
       <c r="D152" s="3"/>
-      <c r="E152" s="0" t="s">
+      <c r="E152" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C153" s="5"/>
       <c r="D153" s="3"/>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="0" t="s">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B154" t="s">
         <v>366</v>
       </c>
       <c r="C154" s="5"/>
@@ -3673,15 +3935,15 @@
         <v>367</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C155" s="5"/>
       <c r="D155" s="3"/>
     </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
         <v>368</v>
       </c>
-      <c r="B156" s="0" t="s">
+      <c r="B156" t="s">
         <v>369</v>
       </c>
       <c r="C156" s="5" t="s">
@@ -3690,18 +3952,18 @@
       <c r="D156" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="E156" s="0" t="s">
+      <c r="E156" t="s">
         <v>371</v>
       </c>
-      <c r="F156" s="0" t="s">
+      <c r="F156" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
         <v>373</v>
       </c>
-      <c r="B157" s="0" t="s">
+      <c r="B157" t="s">
         <v>374</v>
       </c>
       <c r="C157" s="5" t="s">
@@ -3710,15 +3972,15 @@
       <c r="D157" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E157" s="0" t="s">
+      <c r="E157" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
         <v>376</v>
       </c>
-      <c r="B158" s="0" t="s">
+      <c r="B158" t="s">
         <v>377</v>
       </c>
       <c r="C158" s="5" t="s">
@@ -3727,18 +3989,18 @@
       <c r="D158" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E158" s="0" t="s">
+      <c r="E158" t="s">
         <v>378</v>
       </c>
-      <c r="F158" s="0" t="s">
+      <c r="F158" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>380</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="B159" t="s">
         <v>381</v>
       </c>
       <c r="C159" s="5" t="s">
@@ -3747,56 +4009,56 @@
       <c r="D159" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E159" s="0" t="s">
+      <c r="E159" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C160" s="5"/>
       <c r="D160" s="3"/>
     </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
         <v>383</v>
       </c>
-      <c r="B161" s="0" t="s">
+      <c r="B161" t="s">
         <v>384</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D161" s="0" t="s">
+      <c r="D161" t="s">
         <v>385</v>
       </c>
-      <c r="E161" s="0" t="s">
+      <c r="E161" t="s">
         <v>386</v>
       </c>
-      <c r="F161" s="0" t="s">
+      <c r="F161" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="0" t="s">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B162" t="s">
         <v>388</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="D162" s="0" t="s">
+      <c r="D162" t="s">
         <v>389</v>
       </c>
-      <c r="E162" s="0" t="s">
+      <c r="E162" t="s">
         <v>390</v>
       </c>
-      <c r="F162" s="0" t="s">
+      <c r="F162" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>392</v>
       </c>
-      <c r="B163" s="0" t="s">
+      <c r="B163" t="s">
         <v>393</v>
       </c>
       <c r="C163" s="5" t="s">
@@ -3805,58 +4067,58 @@
       <c r="D163" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="E163" s="0" t="s">
+      <c r="E163" t="s">
         <v>395</v>
       </c>
-      <c r="F163" s="0" t="s">
+      <c r="F163" t="s">
         <v>396</v>
       </c>
-      <c r="G163" s="0" t="s">
+      <c r="G163" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>398</v>
       </c>
-      <c r="B164" s="0" t="s">
+      <c r="B164" t="s">
         <v>399</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>358</v>
       </c>
       <c r="D164" s="3"/>
-      <c r="E164" s="0" t="s">
+      <c r="E164" t="s">
         <v>400</v>
       </c>
-      <c r="F164" s="0" t="s">
+      <c r="F164" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>402</v>
       </c>
-      <c r="B165" s="0" t="s">
+      <c r="B165" t="s">
         <v>403</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>364</v>
       </c>
       <c r="D165" s="3"/>
-      <c r="E165" s="0" t="s">
+      <c r="E165" t="s">
         <v>404</v>
       </c>
-      <c r="F165" s="0" t="s">
+      <c r="F165" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C166" s="5"/>
       <c r="D166" s="3"/>
     </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="0" t="s">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B167" t="s">
         <v>406</v>
       </c>
       <c r="C167" s="5"/>
@@ -3864,78 +4126,78 @@
         <v>407</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C168" s="5"/>
       <c r="D168" s="3"/>
     </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
         <v>408</v>
       </c>
-      <c r="B169" s="0" t="s">
+      <c r="B169" t="s">
         <v>409</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>345</v>
       </c>
       <c r="D169" s="3"/>
-      <c r="E169" s="0" t="s">
+      <c r="E169" t="s">
         <v>410</v>
       </c>
-      <c r="F169" s="0" t="s">
+      <c r="F169" t="s">
         <v>411</v>
       </c>
-      <c r="G169" s="0" t="s">
+      <c r="G169" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
         <v>413</v>
       </c>
-      <c r="B170" s="0" t="s">
+      <c r="B170" t="s">
         <v>414</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>352</v>
       </c>
       <c r="D170" s="3"/>
-      <c r="E170" s="0" t="s">
+      <c r="E170" t="s">
         <v>415</v>
       </c>
-      <c r="F170" s="0" t="s">
+      <c r="F170" t="s">
         <v>416</v>
       </c>
-      <c r="G170" s="0" t="s">
+      <c r="G170" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
         <v>418</v>
       </c>
-      <c r="B171" s="0" t="s">
+      <c r="B171" t="s">
         <v>419</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>358</v>
       </c>
       <c r="D171" s="3"/>
-      <c r="E171" s="0" t="s">
+      <c r="E171" t="s">
         <v>420</v>
       </c>
-      <c r="F171" s="0" t="s">
+      <c r="F171" t="s">
         <v>421</v>
       </c>
-      <c r="G171" s="0" t="s">
+      <c r="G171" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
         <v>423</v>
       </c>
-      <c r="B172" s="0" t="s">
+      <c r="B172" t="s">
         <v>424</v>
       </c>
       <c r="C172" s="5" t="s">
@@ -3943,12 +4205,12 @@
       </c>
       <c r="D172" s="3"/>
     </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C173" s="5"/>
       <c r="D173" s="3"/>
     </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="0" t="s">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B174" t="s">
         <v>425</v>
       </c>
       <c r="C174" s="5"/>
@@ -3956,445 +4218,444 @@
         <v>426</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C175" s="5"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
         <v>427</v>
       </c>
-      <c r="B176" s="0" t="s">
+      <c r="B176" t="s">
         <v>428</v>
       </c>
-      <c r="C176" s="5" t="n">
+      <c r="C176" s="5">
         <v>1975</v>
       </c>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
         <v>429</v>
       </c>
-      <c r="B177" s="0" t="s">
+      <c r="B177" t="s">
         <v>430</v>
       </c>
-      <c r="C177" s="5" t="n">
+      <c r="C177" s="5">
         <v>1995</v>
       </c>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
         <v>431</v>
       </c>
-      <c r="B178" s="0" t="s">
+      <c r="B178" t="s">
         <v>432</v>
       </c>
-      <c r="C178" s="5" t="n">
+      <c r="C178" s="5">
         <v>2015</v>
       </c>
       <c r="D178" s="3"/>
     </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C179" s="5"/>
       <c r="D179" s="3"/>
     </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
         <v>433</v>
       </c>
-      <c r="B180" s="0" t="s">
+      <c r="B180" t="s">
         <v>434</v>
       </c>
-      <c r="C180" s="5" t="n">
+      <c r="C180" s="5">
         <v>1975</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
         <v>436</v>
       </c>
-      <c r="B181" s="0" t="s">
+      <c r="B181" t="s">
         <v>437</v>
       </c>
-      <c r="C181" s="5" t="n">
+      <c r="C181" s="5">
         <v>1995</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
         <v>438</v>
       </c>
-      <c r="B182" s="0" t="s">
+      <c r="B182" t="s">
         <v>439</v>
       </c>
-      <c r="C182" s="5" t="n">
+      <c r="C182" s="5">
         <v>2015</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C183" s="5"/>
       <c r="D183" s="3"/>
     </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B184" s="0" t="s">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B184" t="s">
         <v>440</v>
       </c>
-      <c r="C184" s="5" t="n">
+      <c r="C184" s="5">
         <v>1965</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C185" s="5"/>
       <c r="D185" s="3"/>
     </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
         <v>442</v>
       </c>
-      <c r="B186" s="0" t="s">
+      <c r="B186" t="s">
         <v>443</v>
       </c>
-      <c r="C186" s="5" t="n">
+      <c r="C186" s="5">
         <v>1965</v>
       </c>
       <c r="D186" s="3"/>
     </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
         <v>444</v>
       </c>
-      <c r="B187" s="0" t="s">
+      <c r="B187" t="s">
         <v>445</v>
       </c>
-      <c r="C187" s="5" t="n">
+      <c r="C187" s="5">
         <v>1975</v>
       </c>
       <c r="D187" s="3"/>
     </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
         <v>446</v>
       </c>
-      <c r="B188" s="0" t="s">
+      <c r="B188" t="s">
         <v>447</v>
       </c>
-      <c r="C188" s="5" t="n">
+      <c r="C188" s="5">
         <v>1985</v>
       </c>
       <c r="D188" s="3"/>
     </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
         <v>448</v>
       </c>
-      <c r="B189" s="0" t="s">
+      <c r="B189" t="s">
         <v>449</v>
       </c>
-      <c r="C189" s="5" t="n">
+      <c r="C189" s="5">
         <v>2015</v>
       </c>
       <c r="D189" s="3"/>
-      <c r="E189" s="0" t="s">
+      <c r="E189" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C190" s="5"/>
       <c r="D190" s="3"/>
     </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
         <v>451</v>
       </c>
-      <c r="B191" s="0" t="s">
+      <c r="B191" t="s">
         <v>452</v>
       </c>
-      <c r="C191" s="5" t="n">
+      <c r="C191" s="5">
         <v>1965</v>
       </c>
       <c r="D191" s="3"/>
     </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
         <v>453</v>
       </c>
-      <c r="B192" s="0" t="s">
+      <c r="B192" t="s">
         <v>454</v>
       </c>
-      <c r="C192" s="5" t="n">
+      <c r="C192" s="5">
         <v>1985</v>
       </c>
       <c r="D192" s="3"/>
     </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
         <v>455</v>
       </c>
-      <c r="B193" s="0" t="s">
+      <c r="B193" t="s">
         <v>456</v>
       </c>
-      <c r="C193" s="5" t="n">
+      <c r="C193" s="5">
         <v>1995</v>
       </c>
       <c r="D193" s="3"/>
     </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
         <v>457</v>
       </c>
-      <c r="B194" s="0" t="s">
+      <c r="B194" t="s">
         <v>458</v>
       </c>
-      <c r="C194" s="5" t="n">
+      <c r="C194" s="5">
         <v>2015</v>
       </c>
       <c r="D194" s="3"/>
     </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C195" s="5"/>
       <c r="D195" s="3"/>
     </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
         <v>459</v>
       </c>
-      <c r="B196" s="0" t="s">
+      <c r="B196" t="s">
         <v>460</v>
       </c>
-      <c r="C196" s="5" t="n">
+      <c r="C196" s="5">
         <v>1965</v>
       </c>
       <c r="D196" s="3"/>
     </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
         <v>461</v>
       </c>
-      <c r="B197" s="0" t="s">
+      <c r="B197" t="s">
         <v>462</v>
       </c>
-      <c r="C197" s="5" t="n">
+      <c r="C197" s="5">
         <v>1975</v>
       </c>
       <c r="D197" s="3"/>
     </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
         <v>463</v>
       </c>
-      <c r="B198" s="0" t="s">
+      <c r="B198" t="s">
         <v>464</v>
       </c>
-      <c r="C198" s="5" t="n">
+      <c r="C198" s="5">
         <v>1985</v>
       </c>
       <c r="D198" s="3"/>
     </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
         <v>465</v>
       </c>
-      <c r="B199" s="0" t="s">
+      <c r="B199" t="s">
         <v>466</v>
       </c>
-      <c r="C199" s="5" t="n">
+      <c r="C199" s="5">
         <v>2015</v>
       </c>
       <c r="D199" s="3"/>
     </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C200" s="5"/>
       <c r="D200" s="3"/>
     </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
         <v>467</v>
       </c>
-      <c r="B201" s="0" t="s">
+      <c r="B201" t="s">
         <v>468</v>
       </c>
-      <c r="C201" s="5" t="n">
+      <c r="C201" s="5">
         <v>1975</v>
       </c>
       <c r="D201" s="3"/>
     </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
         <v>469</v>
       </c>
-      <c r="B202" s="0" t="s">
+      <c r="B202" t="s">
         <v>470</v>
       </c>
-      <c r="C202" s="5" t="n">
+      <c r="C202" s="5">
         <v>1995</v>
       </c>
       <c r="D202" s="3"/>
     </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
         <v>471</v>
       </c>
-      <c r="B203" s="0" t="s">
+      <c r="B203" t="s">
         <v>472</v>
       </c>
-      <c r="C203" s="5" t="n">
+      <c r="C203" s="5">
         <v>2015</v>
       </c>
       <c r="D203" s="3"/>
     </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C204" s="5"/>
       <c r="D204" s="3"/>
     </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B205" s="0" t="s">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B205" t="s">
         <v>473</v>
       </c>
-      <c r="C205" s="5" t="n">
+      <c r="C205" s="5">
         <v>1965</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
         <v>475</v>
       </c>
-      <c r="B206" s="0" t="s">
+      <c r="B206" t="s">
         <v>476</v>
       </c>
-      <c r="C206" s="5" t="n">
+      <c r="C206" s="5">
         <v>1965</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
         <v>478</v>
       </c>
-      <c r="B207" s="0" t="s">
+      <c r="B207" t="s">
         <v>479</v>
       </c>
-      <c r="C207" s="5" t="n">
+      <c r="C207" s="5">
         <v>1985</v>
       </c>
       <c r="D207" s="3"/>
     </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
         <v>480</v>
       </c>
-      <c r="B208" s="0" t="s">
+      <c r="B208" t="s">
         <v>481</v>
       </c>
-      <c r="C208" s="5" t="n">
+      <c r="C208" s="5">
         <v>2005</v>
       </c>
       <c r="D208" s="3"/>
     </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
         <v>482</v>
       </c>
-      <c r="B209" s="0" t="s">
+      <c r="B209" t="s">
         <v>483</v>
       </c>
-      <c r="C209" s="5" t="n">
+      <c r="C209" s="5">
         <v>2015</v>
       </c>
       <c r="D209" s="3"/>
     </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
         <v>484</v>
       </c>
-      <c r="B211" s="0" t="s">
+      <c r="B211" t="s">
         <v>485</v>
       </c>
-      <c r="C211" s="0" t="n">
+      <c r="C211">
         <v>1965</v>
       </c>
-      <c r="D211" s="0" t="s">
+      <c r="D211" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
         <v>487</v>
       </c>
-      <c r="B212" s="0" t="s">
+      <c r="B212" t="s">
         <v>488</v>
       </c>
-      <c r="C212" s="0" t="n">
+      <c r="C212">
         <v>1985</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
         <v>489</v>
       </c>
-      <c r="B213" s="0" t="s">
+      <c r="B213" t="s">
         <v>490</v>
       </c>
-      <c r="C213" s="0" t="n">
+      <c r="C213">
         <v>2005</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
         <v>491</v>
       </c>
-      <c r="B214" s="0" t="s">
+      <c r="B214" t="s">
         <v>492</v>
       </c>
-      <c r="C214" s="0" t="n">
+      <c r="C214">
         <v>2015</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
         <v>493</v>
       </c>
-      <c r="B216" s="0" t="s">
+      <c r="B216" t="s">
         <v>494</v>
       </c>
-      <c r="C216" s="5" t="n">
+      <c r="C216" s="5">
         <v>2005</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="s">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
         <v>495</v>
       </c>
-      <c r="B217" s="0" t="s">
+      <c r="B217" t="s">
         <v>496</v>
       </c>
-      <c r="C217" s="5" t="n">
+      <c r="C217" s="5">
         <v>2015</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/Modding resources/Equipment codes for OOBs.xlsx
+++ b/Modding resources/Equipment codes for OOBs.xlsx
@@ -977,9 +977,6 @@
     <t>Leopard 2A4</t>
   </si>
   <si>
-    <t>MBT_Equipment_6</t>
-  </si>
-  <si>
     <t>MBT_5</t>
   </si>
   <si>
@@ -1530,6 +1527,9 @@
   </si>
   <si>
     <t>IFV_6</t>
+  </si>
+  <si>
+    <t>MBT_Equipment_5</t>
   </si>
 </sst>
 </file>
@@ -1901,8 +1901,8 @@
   <dimension ref="A1:G217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="510" topLeftCell="A19" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <pane ySplit="510" topLeftCell="A103" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="M121" sqref="M121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3128,7 +3128,7 @@
         <v>212</v>
       </c>
       <c r="B99" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C99" s="5">
         <v>1975</v>
@@ -3143,7 +3143,7 @@
         <v>214</v>
       </c>
       <c r="B100" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C100" s="5">
         <v>1985</v>
@@ -3164,7 +3164,7 @@
         <v>218</v>
       </c>
       <c r="B101" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C101" s="5">
         <v>1995</v>
@@ -3185,7 +3185,7 @@
         <v>222</v>
       </c>
       <c r="B102" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C102" s="5">
         <v>2005</v>
@@ -3200,7 +3200,7 @@
         <v>224</v>
       </c>
       <c r="B103" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C103" s="5">
         <v>2015</v>
@@ -3693,22 +3693,22 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>501</v>
+      </c>
+      <c r="B135" t="s">
         <v>317</v>
-      </c>
-      <c r="B135" t="s">
-        <v>318</v>
       </c>
       <c r="C135" s="5">
         <v>2015</v>
       </c>
       <c r="D135" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E135" t="s">
         <v>319</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
         <v>320</v>
-      </c>
-      <c r="F135" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -3717,30 +3717,30 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>321</v>
+      </c>
+      <c r="B137" t="s">
         <v>322</v>
-      </c>
-      <c r="B137" t="s">
-        <v>323</v>
       </c>
       <c r="C137" s="5">
         <v>1965</v>
       </c>
       <c r="D137" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E137" t="s">
         <v>324</v>
       </c>
-      <c r="E137" t="s">
+      <c r="F137" t="s">
         <v>325</v>
-      </c>
-      <c r="F137" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
+        <v>326</v>
+      </c>
+      <c r="B138" t="s">
         <v>327</v>
-      </c>
-      <c r="B138" t="s">
-        <v>328</v>
       </c>
       <c r="C138" s="5">
         <v>1975</v>
@@ -3749,18 +3749,18 @@
         <v>90</v>
       </c>
       <c r="E138" t="s">
+        <v>328</v>
+      </c>
+      <c r="F138" t="s">
         <v>329</v>
-      </c>
-      <c r="F138" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>330</v>
+      </c>
+      <c r="B139" t="s">
         <v>331</v>
-      </c>
-      <c r="B139" t="s">
-        <v>332</v>
       </c>
       <c r="C139" s="5">
         <v>1985</v>
@@ -3771,10 +3771,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>332</v>
+      </c>
+      <c r="B140" t="s">
         <v>333</v>
-      </c>
-      <c r="B140" t="s">
-        <v>334</v>
       </c>
       <c r="C140" s="5">
         <v>1995</v>
@@ -3783,15 +3783,15 @@
         <v>90</v>
       </c>
       <c r="E140" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
+        <v>335</v>
+      </c>
+      <c r="B141" t="s">
         <v>336</v>
-      </c>
-      <c r="B141" t="s">
-        <v>337</v>
       </c>
       <c r="C141" s="5">
         <v>2015</v>
@@ -3800,7 +3800,7 @@
         <v>90</v>
       </c>
       <c r="E141" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -3813,18 +3813,18 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="3"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
@@ -3833,7 +3833,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="3"/>
@@ -3844,82 +3844,82 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
+        <v>342</v>
+      </c>
+      <c r="B149" t="s">
         <v>343</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="D149" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="E149" t="s">
         <v>346</v>
       </c>
-      <c r="E149" t="s">
+      <c r="F149" t="s">
         <v>347</v>
       </c>
-      <c r="F149" t="s">
+      <c r="G149" t="s">
         <v>348</v>
-      </c>
-      <c r="G149" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
+        <v>349</v>
+      </c>
+      <c r="B150" t="s">
         <v>350</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" s="5" t="s">
         <v>351</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>352</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" t="s">
+        <v>352</v>
+      </c>
+      <c r="F150" t="s">
         <v>353</v>
       </c>
-      <c r="F150" t="s">
+      <c r="G150" t="s">
         <v>354</v>
-      </c>
-      <c r="G150" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
+        <v>355</v>
+      </c>
+      <c r="B151" t="s">
         <v>356</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>358</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" t="s">
+        <v>358</v>
+      </c>
+      <c r="F151" t="s">
         <v>359</v>
       </c>
-      <c r="F151" t="s">
+      <c r="G151" t="s">
         <v>360</v>
-      </c>
-      <c r="G151" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
+        <v>361</v>
+      </c>
+      <c r="B152" t="s">
         <v>362</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>364</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
@@ -3928,11 +3928,11 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
@@ -3941,76 +3941,76 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
+        <v>367</v>
+      </c>
+      <c r="B156" t="s">
         <v>368</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D156" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C156" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="D156" s="3" t="s">
+      <c r="E156" t="s">
         <v>370</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F156" t="s">
         <v>371</v>
-      </c>
-      <c r="F156" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
+        <v>372</v>
+      </c>
+      <c r="B157" t="s">
         <v>373</v>
       </c>
-      <c r="B157" t="s">
-        <v>374</v>
-      </c>
       <c r="C157" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>90</v>
       </c>
       <c r="E157" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>375</v>
+      </c>
+      <c r="B158" t="s">
         <v>376</v>
       </c>
-      <c r="B158" t="s">
-        <v>377</v>
-      </c>
       <c r="C158" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>90</v>
       </c>
       <c r="E158" t="s">
+        <v>377</v>
+      </c>
+      <c r="F158" t="s">
         <v>378</v>
-      </c>
-      <c r="F158" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
+        <v>379</v>
+      </c>
+      <c r="B159" t="s">
         <v>380</v>
       </c>
-      <c r="B159" t="s">
-        <v>381</v>
-      </c>
       <c r="C159" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>90</v>
       </c>
       <c r="E159" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -4019,98 +4019,98 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>382</v>
+      </c>
+      <c r="B161" t="s">
         <v>383</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D161" t="s">
         <v>384</v>
       </c>
-      <c r="C161" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="D161" t="s">
+      <c r="E161" t="s">
         <v>385</v>
       </c>
-      <c r="E161" t="s">
+      <c r="F161" t="s">
         <v>386</v>
-      </c>
-      <c r="F161" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
+        <v>387</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D162" t="s">
         <v>388</v>
       </c>
-      <c r="C162" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="D162" t="s">
+      <c r="E162" t="s">
         <v>389</v>
       </c>
-      <c r="E162" t="s">
+      <c r="F162" t="s">
         <v>390</v>
-      </c>
-      <c r="F162" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
+        <v>391</v>
+      </c>
+      <c r="B163" t="s">
         <v>392</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D163" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C163" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="D163" s="3" t="s">
+      <c r="E163" t="s">
         <v>394</v>
       </c>
-      <c r="E163" t="s">
+      <c r="F163" t="s">
         <v>395</v>
       </c>
-      <c r="F163" t="s">
+      <c r="G163" t="s">
         <v>396</v>
-      </c>
-      <c r="G163" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>397</v>
+      </c>
+      <c r="B164" t="s">
         <v>398</v>
       </c>
-      <c r="B164" t="s">
-        <v>399</v>
-      </c>
       <c r="C164" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D164" s="3"/>
       <c r="E164" t="s">
+        <v>399</v>
+      </c>
+      <c r="F164" t="s">
         <v>400</v>
-      </c>
-      <c r="F164" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>401</v>
+      </c>
+      <c r="B165" t="s">
         <v>402</v>
       </c>
-      <c r="B165" t="s">
-        <v>403</v>
-      </c>
       <c r="C165" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D165" s="3"/>
       <c r="E165" t="s">
+        <v>403</v>
+      </c>
+      <c r="F165" t="s">
         <v>404</v>
-      </c>
-      <c r="F165" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -4119,11 +4119,11 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
@@ -4132,76 +4132,76 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
+        <v>407</v>
+      </c>
+      <c r="B169" t="s">
         <v>408</v>
       </c>
-      <c r="B169" t="s">
-        <v>409</v>
-      </c>
       <c r="C169" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" t="s">
+        <v>409</v>
+      </c>
+      <c r="F169" t="s">
         <v>410</v>
       </c>
-      <c r="F169" t="s">
+      <c r="G169" t="s">
         <v>411</v>
-      </c>
-      <c r="G169" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
+        <v>412</v>
+      </c>
+      <c r="B170" t="s">
         <v>413</v>
       </c>
-      <c r="B170" t="s">
-        <v>414</v>
-      </c>
       <c r="C170" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" t="s">
+        <v>414</v>
+      </c>
+      <c r="F170" t="s">
         <v>415</v>
       </c>
-      <c r="F170" t="s">
+      <c r="G170" t="s">
         <v>416</v>
-      </c>
-      <c r="G170" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
+        <v>417</v>
+      </c>
+      <c r="B171" t="s">
         <v>418</v>
       </c>
-      <c r="B171" t="s">
-        <v>419</v>
-      </c>
       <c r="C171" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D171" s="3"/>
       <c r="E171" t="s">
+        <v>419</v>
+      </c>
+      <c r="F171" t="s">
         <v>420</v>
       </c>
-      <c r="F171" t="s">
+      <c r="G171" t="s">
         <v>421</v>
-      </c>
-      <c r="G171" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
+        <v>422</v>
+      </c>
+      <c r="B172" t="s">
         <v>423</v>
       </c>
-      <c r="B172" t="s">
-        <v>424</v>
-      </c>
       <c r="C172" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D172" s="3"/>
     </row>
@@ -4211,11 +4211,11 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -4224,10 +4224,10 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>426</v>
+      </c>
+      <c r="B176" t="s">
         <v>427</v>
-      </c>
-      <c r="B176" t="s">
-        <v>428</v>
       </c>
       <c r="C176" s="5">
         <v>1975</v>
@@ -4236,10 +4236,10 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>428</v>
+      </c>
+      <c r="B177" t="s">
         <v>429</v>
-      </c>
-      <c r="B177" t="s">
-        <v>430</v>
       </c>
       <c r="C177" s="5">
         <v>1995</v>
@@ -4248,10 +4248,10 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
+        <v>430</v>
+      </c>
+      <c r="B178" t="s">
         <v>431</v>
-      </c>
-      <c r="B178" t="s">
-        <v>432</v>
       </c>
       <c r="C178" s="5">
         <v>2015</v>
@@ -4264,44 +4264,44 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
+        <v>432</v>
+      </c>
+      <c r="B180" t="s">
         <v>433</v>
-      </c>
-      <c r="B180" t="s">
-        <v>434</v>
       </c>
       <c r="C180" s="5">
         <v>1975</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
+        <v>435</v>
+      </c>
+      <c r="B181" t="s">
         <v>436</v>
-      </c>
-      <c r="B181" t="s">
-        <v>437</v>
       </c>
       <c r="C181" s="5">
         <v>1995</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
+        <v>437</v>
+      </c>
+      <c r="B182" t="s">
         <v>438</v>
-      </c>
-      <c r="B182" t="s">
-        <v>439</v>
       </c>
       <c r="C182" s="5">
         <v>2015</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -4310,13 +4310,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C184" s="5">
         <v>1965</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -4325,10 +4325,10 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>441</v>
+      </c>
+      <c r="B186" t="s">
         <v>442</v>
-      </c>
-      <c r="B186" t="s">
-        <v>443</v>
       </c>
       <c r="C186" s="5">
         <v>1965</v>
@@ -4337,10 +4337,10 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
+        <v>443</v>
+      </c>
+      <c r="B187" t="s">
         <v>444</v>
-      </c>
-      <c r="B187" t="s">
-        <v>445</v>
       </c>
       <c r="C187" s="5">
         <v>1975</v>
@@ -4349,10 +4349,10 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
+        <v>445</v>
+      </c>
+      <c r="B188" t="s">
         <v>446</v>
-      </c>
-      <c r="B188" t="s">
-        <v>447</v>
       </c>
       <c r="C188" s="5">
         <v>1985</v>
@@ -4361,17 +4361,17 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
+        <v>447</v>
+      </c>
+      <c r="B189" t="s">
         <v>448</v>
-      </c>
-      <c r="B189" t="s">
-        <v>449</v>
       </c>
       <c r="C189" s="5">
         <v>2015</v>
       </c>
       <c r="D189" s="3"/>
       <c r="E189" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -4380,10 +4380,10 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
+        <v>450</v>
+      </c>
+      <c r="B191" t="s">
         <v>451</v>
-      </c>
-      <c r="B191" t="s">
-        <v>452</v>
       </c>
       <c r="C191" s="5">
         <v>1965</v>
@@ -4392,10 +4392,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
+        <v>452</v>
+      </c>
+      <c r="B192" t="s">
         <v>453</v>
-      </c>
-      <c r="B192" t="s">
-        <v>454</v>
       </c>
       <c r="C192" s="5">
         <v>1985</v>
@@ -4404,10 +4404,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>454</v>
+      </c>
+      <c r="B193" t="s">
         <v>455</v>
-      </c>
-      <c r="B193" t="s">
-        <v>456</v>
       </c>
       <c r="C193" s="5">
         <v>1995</v>
@@ -4416,10 +4416,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
+        <v>456</v>
+      </c>
+      <c r="B194" t="s">
         <v>457</v>
-      </c>
-      <c r="B194" t="s">
-        <v>458</v>
       </c>
       <c r="C194" s="5">
         <v>2015</v>
@@ -4432,10 +4432,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
+        <v>458</v>
+      </c>
+      <c r="B196" t="s">
         <v>459</v>
-      </c>
-      <c r="B196" t="s">
-        <v>460</v>
       </c>
       <c r="C196" s="5">
         <v>1965</v>
@@ -4444,10 +4444,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>460</v>
+      </c>
+      <c r="B197" t="s">
         <v>461</v>
-      </c>
-      <c r="B197" t="s">
-        <v>462</v>
       </c>
       <c r="C197" s="5">
         <v>1975</v>
@@ -4456,10 +4456,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
+        <v>462</v>
+      </c>
+      <c r="B198" t="s">
         <v>463</v>
-      </c>
-      <c r="B198" t="s">
-        <v>464</v>
       </c>
       <c r="C198" s="5">
         <v>1985</v>
@@ -4468,10 +4468,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
+        <v>464</v>
+      </c>
+      <c r="B199" t="s">
         <v>465</v>
-      </c>
-      <c r="B199" t="s">
-        <v>466</v>
       </c>
       <c r="C199" s="5">
         <v>2015</v>
@@ -4484,10 +4484,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
+        <v>466</v>
+      </c>
+      <c r="B201" t="s">
         <v>467</v>
-      </c>
-      <c r="B201" t="s">
-        <v>468</v>
       </c>
       <c r="C201" s="5">
         <v>1975</v>
@@ -4496,10 +4496,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>468</v>
+      </c>
+      <c r="B202" t="s">
         <v>469</v>
-      </c>
-      <c r="B202" t="s">
-        <v>470</v>
       </c>
       <c r="C202" s="5">
         <v>1995</v>
@@ -4508,10 +4508,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
+        <v>470</v>
+      </c>
+      <c r="B203" t="s">
         <v>471</v>
-      </c>
-      <c r="B203" t="s">
-        <v>472</v>
       </c>
       <c r="C203" s="5">
         <v>2015</v>
@@ -4524,35 +4524,35 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C205" s="5">
         <v>1965</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
+        <v>474</v>
+      </c>
+      <c r="B206" t="s">
         <v>475</v>
-      </c>
-      <c r="B206" t="s">
-        <v>476</v>
       </c>
       <c r="C206" s="5">
         <v>1965</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
+        <v>477</v>
+      </c>
+      <c r="B207" t="s">
         <v>478</v>
-      </c>
-      <c r="B207" t="s">
-        <v>479</v>
       </c>
       <c r="C207" s="5">
         <v>1985</v>
@@ -4561,10 +4561,10 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
+        <v>479</v>
+      </c>
+      <c r="B208" t="s">
         <v>480</v>
-      </c>
-      <c r="B208" t="s">
-        <v>481</v>
       </c>
       <c r="C208" s="5">
         <v>2005</v>
@@ -4573,10 +4573,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
+        <v>481</v>
+      </c>
+      <c r="B209" t="s">
         <v>482</v>
-      </c>
-      <c r="B209" t="s">
-        <v>483</v>
       </c>
       <c r="C209" s="5">
         <v>2015</v>
@@ -4585,24 +4585,24 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
+        <v>483</v>
+      </c>
+      <c r="B211" t="s">
         <v>484</v>
-      </c>
-      <c r="B211" t="s">
-        <v>485</v>
       </c>
       <c r="C211">
         <v>1965</v>
       </c>
       <c r="D211" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
+        <v>486</v>
+      </c>
+      <c r="B212" t="s">
         <v>487</v>
-      </c>
-      <c r="B212" t="s">
-        <v>488</v>
       </c>
       <c r="C212">
         <v>1985</v>
@@ -4610,10 +4610,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
+        <v>488</v>
+      </c>
+      <c r="B213" t="s">
         <v>489</v>
-      </c>
-      <c r="B213" t="s">
-        <v>490</v>
       </c>
       <c r="C213">
         <v>2005</v>
@@ -4621,10 +4621,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
+        <v>490</v>
+      </c>
+      <c r="B214" t="s">
         <v>491</v>
-      </c>
-      <c r="B214" t="s">
-        <v>492</v>
       </c>
       <c r="C214">
         <v>2015</v>
@@ -4632,10 +4632,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
+        <v>492</v>
+      </c>
+      <c r="B216" t="s">
         <v>493</v>
-      </c>
-      <c r="B216" t="s">
-        <v>494</v>
       </c>
       <c r="C216" s="5">
         <v>2005</v>
@@ -4643,10 +4643,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
+        <v>494</v>
+      </c>
+      <c r="B217" t="s">
         <v>495</v>
-      </c>
-      <c r="B217" t="s">
-        <v>496</v>
       </c>
       <c r="C217" s="5">
         <v>2015</v>

--- a/Modding resources/Equipment codes for OOBs.xlsx
+++ b/Modding resources/Equipment codes for OOBs.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Modern_Day_4_HOI\Modding resources\"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="507">
   <si>
     <t>Equipment Code</t>
   </si>
@@ -1530,6 +1530,21 @@
   </si>
   <si>
     <t>MBT_Equipment_5</t>
+  </si>
+  <si>
+    <t>Air_APC_1</t>
+  </si>
+  <si>
+    <t>Air_APC_3</t>
+  </si>
+  <si>
+    <t>Air_APC_4</t>
+  </si>
+  <si>
+    <t>Air_APC_5</t>
+  </si>
+  <si>
+    <t>Air_APC_6</t>
   </si>
 </sst>
 </file>
@@ -1901,15 +1916,15 @@
   <dimension ref="A1:G217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="510" topLeftCell="A103" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="M121" sqref="M121"/>
+      <pane ySplit="510" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29"/>
     <col min="2" max="2" width="26.42578125"/>
-    <col min="4" max="4" width="12.42578125"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.5703125"/>
     <col min="6" max="6" width="10.7109375"/>
   </cols>
@@ -2930,7 +2945,7 @@
         <v>185</v>
       </c>
       <c r="B84" t="s">
-        <v>186</v>
+        <v>502</v>
       </c>
       <c r="C84" s="5">
         <v>1965</v>
@@ -2958,7 +2973,7 @@
         <v>189</v>
       </c>
       <c r="B86" t="s">
-        <v>186</v>
+        <v>503</v>
       </c>
       <c r="C86" s="5">
         <v>1985</v>
@@ -2975,7 +2990,7 @@
         <v>191</v>
       </c>
       <c r="B87" t="s">
-        <v>186</v>
+        <v>504</v>
       </c>
       <c r="C87" s="5">
         <v>1995</v>
@@ -2989,7 +3004,7 @@
         <v>192</v>
       </c>
       <c r="B88" t="s">
-        <v>186</v>
+        <v>505</v>
       </c>
       <c r="C88" s="5">
         <v>2005</v>
@@ -3006,7 +3021,7 @@
         <v>194</v>
       </c>
       <c r="B89" t="s">
-        <v>186</v>
+        <v>506</v>
       </c>
       <c r="C89" s="5">
         <v>2015</v>

--- a/Modding resources/Equipment codes for OOBs.xlsx
+++ b/Modding resources/Equipment codes for OOBs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="496">
   <si>
     <t>Equipment Code</t>
   </si>
@@ -95,48 +95,27 @@
     <t>infantry_weapons5</t>
   </si>
   <si>
-    <t>H_Inf_equipment_0</t>
-  </si>
-  <si>
     <t>heavy_infantry_weapons</t>
   </si>
   <si>
     <t>Heavy machine guns, mortars, other weapons that require an whole crew to operate</t>
   </si>
   <si>
-    <t>H_Inf_equipment_1</t>
-  </si>
-  <si>
     <t>heavy_infantry_weapons1</t>
   </si>
   <si>
-    <t>H_Inf_equipment_2</t>
-  </si>
-  <si>
     <t>heavy_infantry_weapons2</t>
   </si>
   <si>
-    <t>H_Inf_equipment_3</t>
-  </si>
-  <si>
     <t>heavy_infantry_weapons3</t>
   </si>
   <si>
-    <t>H_Inf_equipment_4</t>
-  </si>
-  <si>
     <t>heavy_infantry_weapons4</t>
   </si>
   <si>
-    <t>H_Inf_equipment_5</t>
-  </si>
-  <si>
     <t>heavy_infantry_weapons5</t>
   </si>
   <si>
-    <t>Engi_equipment_0</t>
-  </si>
-  <si>
     <t>combat_eng_equipment</t>
   </si>
   <si>
@@ -206,28 +185,16 @@
     <t>C4ISTAR</t>
   </si>
   <si>
-    <t>land_Drone_equipment_0</t>
-  </si>
-  <si>
     <t>land_Drone_equipment</t>
   </si>
   <si>
     <t>Recon UAV's, not large Predator-type armed drones</t>
   </si>
   <si>
-    <t>land_Drone_equipment_1</t>
-  </si>
-  <si>
     <t>land_Drone_equipment1</t>
   </si>
   <si>
-    <t>land_Drone_equipment_2</t>
-  </si>
-  <si>
     <t>land_Drone_equipment2</t>
-  </si>
-  <si>
-    <t>land_Drone_equipment_3</t>
   </si>
   <si>
     <t>land_Drone_equipment3</t>
@@ -1916,8 +1883,8 @@
   <dimension ref="A1:G217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="510" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <pane ySplit="510" topLeftCell="A40" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2059,24 +2026,24 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
       </c>
       <c r="C14" s="5">
         <v>1965</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="5">
         <v>1975</v>
@@ -2085,10 +2052,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C16" s="5">
         <v>1985</v>
@@ -2097,10 +2064,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17" s="5">
         <v>1995</v>
@@ -2112,7 +2079,7 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C18" s="5">
         <v>2005</v>
@@ -2121,10 +2088,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C19" s="5">
         <v>2015</v>
@@ -2137,14 +2104,14 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2153,24 +2120,24 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C23" s="5">
         <v>1965</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C24" s="5">
         <v>1975</v>
@@ -2179,10 +2146,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C25" s="5">
         <v>1985</v>
@@ -2195,79 +2162,79 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C27" s="5">
         <v>1975</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C28" s="5">
         <v>1985</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C29" s="5">
         <v>1995</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C30" s="5">
         <v>2005</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C31" s="5">
         <v>2015</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -2276,24 +2243,24 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C33" s="5">
         <v>1985</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C34" s="5">
         <v>1995</v>
@@ -2302,10 +2269,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C35" s="5">
         <v>2005</v>
@@ -2314,10 +2281,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C36" s="5">
         <v>2015</v>
@@ -2329,62 +2296,62 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C38" s="5">
         <v>1965</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E38" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F38" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C39" s="5">
         <v>1985</v>
       </c>
       <c r="E39" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F39" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G39" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C40" s="5">
         <v>2005</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F40" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G40" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -2392,62 +2359,62 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C42" s="5">
         <v>1965</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E42" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C43" s="5">
         <v>1985</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E43" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C44" s="5">
         <v>2005</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E44" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -2455,30 +2422,30 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C46" s="5">
         <v>1975</v>
       </c>
       <c r="D46" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C47" s="5">
         <v>1995</v>
       </c>
       <c r="D47" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -2486,59 +2453,59 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C49" s="5">
         <v>1965</v>
       </c>
       <c r="D49" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E49" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F49" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C50" s="5">
         <v>1985</v>
       </c>
       <c r="E50" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F50" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C51" s="5">
         <v>2005</v>
       </c>
       <c r="E51" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F51" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G51" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -2546,59 +2513,59 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C53" s="5">
         <v>1965</v>
       </c>
       <c r="D53" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E53" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="F53" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C54" s="5">
         <v>1985</v>
       </c>
       <c r="E54" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F54" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C55" s="5">
         <v>2005</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F55" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="G55" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -2606,59 +2573,59 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C57" s="5">
         <v>1965</v>
       </c>
       <c r="D57" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E57" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B58" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C58" s="5">
         <v>1985</v>
       </c>
       <c r="D58" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E58" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F58" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C59" s="5">
         <v>2005</v>
       </c>
       <c r="D59" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E59" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F59" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -2666,30 +2633,30 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C61" s="5">
         <v>1975</v>
       </c>
       <c r="D61" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B62" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C62" s="5">
         <v>1995</v>
       </c>
       <c r="D62" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -2697,65 +2664,65 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B64" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C64" s="5">
         <v>1965</v>
       </c>
       <c r="D64" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E64" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="F64" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G64" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B65" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C65" s="5">
         <v>1985</v>
       </c>
       <c r="E65" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F65" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="G65" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B66" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C66" s="5">
         <v>2005</v>
       </c>
       <c r="E66" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F66" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="G66" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -2763,53 +2730,53 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B68" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C68" s="5">
         <v>1965</v>
       </c>
       <c r="D68" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B69" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C69" s="5">
         <v>1985</v>
       </c>
       <c r="D69" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E69" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="F69" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B70" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C70" s="5">
         <v>2005</v>
       </c>
       <c r="D70" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E70" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -2817,30 +2784,30 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B72" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C72" s="5">
         <v>1975</v>
       </c>
       <c r="D72" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B73" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C73" s="5">
         <v>1995</v>
       </c>
       <c r="D73" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -2848,14 +2815,14 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B75" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -2864,24 +2831,24 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B77" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C77" s="5">
         <v>1965</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B78" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C78" s="5">
         <v>1975</v>
@@ -2890,10 +2857,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B79" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C79" s="5">
         <v>1985</v>
@@ -2902,10 +2869,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B80" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C80" s="5">
         <v>1995</v>
@@ -2914,10 +2881,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B81" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C81" s="5">
         <v>2005</v>
@@ -2926,10 +2893,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B82" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C82" s="5">
         <v>2015</v>
@@ -2942,92 +2909,92 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B84" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="C84" s="5">
         <v>1965</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B85" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C85" s="5">
         <v>1975</v>
       </c>
       <c r="D85" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B86" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="C86" s="5">
         <v>1985</v>
       </c>
       <c r="D86" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E86" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B87" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="C87" s="5">
         <v>1995</v>
       </c>
       <c r="D87" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B88" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C88" s="5">
         <v>2005</v>
       </c>
       <c r="D88" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E88" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B89" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="C89" s="5">
         <v>2015</v>
       </c>
       <c r="D89" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -3035,86 +3002,86 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B91" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C91" s="5">
         <v>1965</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B92" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C92" s="5">
         <v>1975</v>
       </c>
       <c r="D92" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B93" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C93" s="5">
         <v>1985</v>
       </c>
       <c r="D93" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B94" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C94" s="5">
         <v>1995</v>
       </c>
       <c r="D94" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B95" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C95" s="5">
         <v>2005</v>
       </c>
       <c r="D95" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B96" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C96" s="5">
         <v>2015</v>
       </c>
       <c r="D96" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -3123,112 +3090,112 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B98" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C98" s="5">
         <v>1965</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E98" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="B99" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="C99" s="5">
         <v>1975</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B100" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="C100" s="5">
         <v>1985</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="F100" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="G100" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B101" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="C101" s="5">
         <v>1995</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="F101" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="G101" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B102" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="C102" s="5">
         <v>2005</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B103" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="C103" s="5">
         <v>2015</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="F103" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="G103" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -3237,98 +3204,98 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B105" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C105" s="5">
         <v>1965</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="E105" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B106" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C106" s="5">
         <v>1975</v>
       </c>
       <c r="D106" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B107" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C107" s="5">
         <v>1985</v>
       </c>
       <c r="D107" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E107" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B108" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C108" s="5">
         <v>1995</v>
       </c>
       <c r="D108" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E108" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B109" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C109" s="5">
         <v>2005</v>
       </c>
       <c r="D109" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E109" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B110" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C110" s="5">
         <v>2015</v>
       </c>
       <c r="D110" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -3337,86 +3304,86 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B112" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C112" s="5">
         <v>1965</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B113" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C113" s="5">
         <v>1975</v>
       </c>
       <c r="D113" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B114" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C114" s="5">
         <v>1985</v>
       </c>
       <c r="D114" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="B115" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C115" s="5">
         <v>1995</v>
       </c>
       <c r="D115" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B116" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C116" s="5">
         <v>2005</v>
       </c>
       <c r="D116" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B117" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C117" s="5">
         <v>2015</v>
       </c>
       <c r="D117" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -3424,121 +3391,121 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B119" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C119" s="5">
         <v>1965</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E119" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="F119" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B120" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C120" s="5">
         <v>1975</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="F120" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B121" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C121" s="5">
         <v>1985</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F121" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="G121" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B122" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C122" s="5">
         <v>1995</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F122" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="G122" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B123" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C123" s="5">
         <v>2005</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="F123" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="G123" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B124" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C124" s="5">
         <v>2015</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="F124" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -3547,79 +3514,79 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B126" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C126" s="5">
         <v>1965</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="F126" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G126" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B127" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C127" s="5">
         <v>1985</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="F127" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B128" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C128" s="5">
         <v>2005</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="F128" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G128" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B129" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C129" s="5">
         <v>2015</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="F129" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -3628,102 +3595,102 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B131" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C131" s="5">
         <v>1965</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="E131" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="F131" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="B132" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C132" s="5">
         <v>1975</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="F132" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B133" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C133" s="5">
         <v>1985</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="F133" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G133" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B134" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C134" s="5">
         <v>1995</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="F134" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="G134" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="B135" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C135" s="5">
         <v>2015</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="E135" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="F135" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -3732,90 +3699,90 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B137" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C137" s="5">
         <v>1965</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E137" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="F137" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B138" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C138" s="5">
         <v>1975</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E138" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F138" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B139" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C139" s="5">
         <v>1985</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B140" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C140" s="5">
         <v>1995</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E140" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B141" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C141" s="5">
         <v>2015</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E141" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -3828,18 +3795,18 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="3"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="3" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
@@ -3848,7 +3815,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="3"/>
@@ -3859,82 +3826,82 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="B149" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="E149" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="F149" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="G149" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="B150" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="F150" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="G150" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="B151" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="F151" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="G151" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="B152" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
@@ -3943,11 +3910,11 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="3" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
@@ -3956,76 +3923,76 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B156" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="E156" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="F156" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="B157" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E157" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B158" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E158" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="F158" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B159" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E159" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -4034,98 +4001,98 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="B161" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D161" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E161" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="F161" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="D162" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="E162" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="F162" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B163" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="E163" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="F163" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="G163" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B164" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="D164" s="3"/>
       <c r="E164" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="F164" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B165" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="D165" s="3"/>
       <c r="E165" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="F165" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -4134,11 +4101,11 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="3" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
@@ -4147,76 +4114,76 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="B169" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="F169" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="G169" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="B170" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="F170" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="G170" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="B171" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="D171" s="3"/>
       <c r="E171" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="F171" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="G171" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="B172" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="D172" s="3"/>
     </row>
@@ -4226,11 +4193,11 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="3" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -4239,10 +4206,10 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="B176" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="C176" s="5">
         <v>1975</v>
@@ -4251,10 +4218,10 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B177" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="C177" s="5">
         <v>1995</v>
@@ -4263,10 +4230,10 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="B178" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="C178" s="5">
         <v>2015</v>
@@ -4279,44 +4246,44 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B180" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="C180" s="5">
         <v>1975</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="B181" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C181" s="5">
         <v>1995</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="B182" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="C182" s="5">
         <v>2015</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -4325,13 +4292,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="C184" s="5">
         <v>1965</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -4340,10 +4307,10 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="B186" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="C186" s="5">
         <v>1965</v>
@@ -4352,10 +4319,10 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="B187" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="C187" s="5">
         <v>1975</v>
@@ -4364,10 +4331,10 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B188" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="C188" s="5">
         <v>1985</v>
@@ -4376,17 +4343,17 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="B189" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="C189" s="5">
         <v>2015</v>
       </c>
       <c r="D189" s="3"/>
       <c r="E189" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -4395,10 +4362,10 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="B191" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="C191" s="5">
         <v>1965</v>
@@ -4407,10 +4374,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="B192" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="C192" s="5">
         <v>1985</v>
@@ -4419,10 +4386,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="B193" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="C193" s="5">
         <v>1995</v>
@@ -4431,10 +4398,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B194" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="C194" s="5">
         <v>2015</v>
@@ -4447,10 +4414,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B196" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="C196" s="5">
         <v>1965</v>
@@ -4459,10 +4426,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="B197" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="C197" s="5">
         <v>1975</v>
@@ -4471,10 +4438,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="B198" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="C198" s="5">
         <v>1985</v>
@@ -4483,10 +4450,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="B199" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="C199" s="5">
         <v>2015</v>
@@ -4499,10 +4466,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="B201" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="C201" s="5">
         <v>1975</v>
@@ -4511,10 +4478,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="B202" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="C202" s="5">
         <v>1995</v>
@@ -4523,10 +4490,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="B203" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="C203" s="5">
         <v>2015</v>
@@ -4539,35 +4506,35 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="C205" s="5">
         <v>1965</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="B206" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="C206" s="5">
         <v>1965</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="B207" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="C207" s="5">
         <v>1985</v>
@@ -4576,10 +4543,10 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="B208" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="C208" s="5">
         <v>2005</v>
@@ -4588,10 +4555,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="B209" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="C209" s="5">
         <v>2015</v>
@@ -4600,24 +4567,24 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="B211" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="C211">
         <v>1965</v>
       </c>
       <c r="D211" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="B212" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="C212">
         <v>1985</v>
@@ -4625,10 +4592,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="B213" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="C213">
         <v>2005</v>
@@ -4636,10 +4603,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="B214" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="C214">
         <v>2015</v>
@@ -4647,10 +4614,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="B216" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="C216" s="5">
         <v>2005</v>
@@ -4658,10 +4625,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="B217" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="C217" s="5">
         <v>2015</v>
